--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N2">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O2">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P2">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q2">
-        <v>658.9862017908567</v>
+        <v>1430.179514708</v>
       </c>
       <c r="R2">
-        <v>5930.87581611771</v>
+        <v>12871.615632372</v>
       </c>
       <c r="S2">
-        <v>0.01369195012296956</v>
+        <v>0.03341782423708124</v>
       </c>
       <c r="T2">
-        <v>0.01369195012296956</v>
+        <v>0.03341782423708126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P3">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q3">
-        <v>1820.573966028682</v>
+        <v>3279.143471394</v>
       </c>
       <c r="R3">
-        <v>16385.16569425814</v>
+        <v>29512.291242546</v>
       </c>
       <c r="S3">
-        <v>0.03782660072441513</v>
+        <v>0.07662103886139811</v>
       </c>
       <c r="T3">
-        <v>0.03782660072441512</v>
+        <v>0.07662103886139812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N4">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O4">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P4">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q4">
-        <v>2.336727160434111</v>
+        <v>3.596683757333333</v>
       </c>
       <c r="R4">
-        <v>21.030544443907</v>
+        <v>32.370153816</v>
       </c>
       <c r="S4">
-        <v>4.855086744563768E-05</v>
+        <v>8.404074062231984E-05</v>
       </c>
       <c r="T4">
-        <v>4.855086744563769E-05</v>
+        <v>8.404074062231985E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N5">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q5">
-        <v>571.9528373787898</v>
+        <v>192.2431998713333</v>
       </c>
       <c r="R5">
-        <v>5147.575536409108</v>
+        <v>1730.188798842</v>
       </c>
       <c r="S5">
-        <v>0.01188363231399903</v>
+        <v>0.00449198817211835</v>
       </c>
       <c r="T5">
-        <v>0.01188363231399903</v>
+        <v>0.004491988172118351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N6">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q6">
-        <v>6.286908530650776</v>
+        <v>10.67325629766667</v>
       </c>
       <c r="R6">
-        <v>56.58217677585699</v>
+        <v>96.059306679</v>
       </c>
       <c r="S6">
-        <v>0.0001306249475260813</v>
+        <v>0.0002493931701053402</v>
       </c>
       <c r="T6">
-        <v>0.0001306249475260813</v>
+        <v>0.0002493931701053403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H7">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N7">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q7">
-        <v>6.052564712022444</v>
+        <v>0.4768460923333333</v>
       </c>
       <c r="R7">
-        <v>54.47308240820199</v>
+        <v>4.291614831</v>
       </c>
       <c r="S7">
-        <v>0.0001257559170857388</v>
+        <v>1.114206904647759E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001257559170857388</v>
+        <v>1.114206904647759E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N8">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O8">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P8">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q8">
-        <v>246.2854829831701</v>
+        <v>296.756988327132</v>
       </c>
       <c r="R8">
-        <v>2216.569346848531</v>
+        <v>2670.812894944188</v>
       </c>
       <c r="S8">
-        <v>0.005117145912695831</v>
+        <v>0.006934075600339177</v>
       </c>
       <c r="T8">
-        <v>0.005117145912695831</v>
+        <v>0.006934075600339179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P9">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q9">
         <v>680.4102078487261</v>
@@ -1013,10 +1013,10 @@
         <v>6123.691870638535</v>
       </c>
       <c r="S9">
-        <v>0.01413708299765097</v>
+        <v>0.01589858371006456</v>
       </c>
       <c r="T9">
-        <v>0.01413708299765097</v>
+        <v>0.01589858371006456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N10">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O10">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P10">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q10">
-        <v>0.8733141539889999</v>
+        <v>0.746298649096</v>
       </c>
       <c r="R10">
-        <v>7.859827385901</v>
+        <v>6.716687841864</v>
       </c>
       <c r="S10">
-        <v>1.814510501980992E-05</v>
+        <v>1.743814453177456E-05</v>
       </c>
       <c r="T10">
-        <v>1.814510501980992E-05</v>
+        <v>1.743814453177456E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N11">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q11">
-        <v>213.758164305443</v>
+        <v>39.889756798702</v>
       </c>
       <c r="R11">
-        <v>1923.823478748987</v>
+        <v>359.007811188318</v>
       </c>
       <c r="S11">
-        <v>0.004441316246218656</v>
+        <v>0.0009320710217493956</v>
       </c>
       <c r="T11">
-        <v>0.004441316246218656</v>
+        <v>0.0009320710217493956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N12">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q12">
-        <v>2.349630841639</v>
+        <v>2.214661419749</v>
       </c>
       <c r="R12">
-        <v>21.146677574751</v>
+        <v>19.931952777741</v>
       </c>
       <c r="S12">
-        <v>4.881897102501446E-05</v>
+        <v>5.174816539371798E-05</v>
       </c>
       <c r="T12">
-        <v>4.881897102501447E-05</v>
+        <v>5.174816539371799E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N13">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q13">
-        <v>2.262048612454</v>
+        <v>0.098943810061</v>
       </c>
       <c r="R13">
-        <v>20.358437512086</v>
+        <v>0.8904942905490001</v>
       </c>
       <c r="S13">
-        <v>4.699924929123514E-05</v>
+        <v>2.311938340580088E-06</v>
       </c>
       <c r="T13">
-        <v>4.699924929123515E-05</v>
+        <v>2.311938340580088E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N14">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O14">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P14">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q14">
-        <v>3060.743012492394</v>
+        <v>3605.813188296162</v>
       </c>
       <c r="R14">
-        <v>27546.68711243154</v>
+        <v>32452.31869466545</v>
       </c>
       <c r="S14">
-        <v>0.06359395773748491</v>
+        <v>0.08425406050011341</v>
       </c>
       <c r="T14">
-        <v>0.06359395773748491</v>
+        <v>0.08425406050011343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P15">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q15">
-        <v>8455.881215880669</v>
+        <v>8267.478770231055</v>
       </c>
       <c r="R15">
-        <v>76102.93094292602</v>
+        <v>74407.30893207948</v>
       </c>
       <c r="S15">
-        <v>0.1756903309036776</v>
+        <v>0.1931793523722722</v>
       </c>
       <c r="T15">
-        <v>0.1756903309036776</v>
+        <v>0.1931793523722722</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N16">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O16">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P16">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q16">
-        <v>10.85321863942422</v>
+        <v>9.068071240672888</v>
       </c>
       <c r="R16">
-        <v>97.67896775481799</v>
+        <v>81.61264116605599</v>
       </c>
       <c r="S16">
-        <v>0.0002255005156114663</v>
+        <v>0.0002118861358128239</v>
       </c>
       <c r="T16">
-        <v>0.0002255005156114663</v>
+        <v>0.0002118861358128239</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H17">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I17">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J17">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N17">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q17">
-        <v>2656.505774665552</v>
+        <v>484.6895500372469</v>
       </c>
       <c r="R17">
-        <v>23908.55197198996</v>
+        <v>4362.205950335222</v>
       </c>
       <c r="S17">
-        <v>0.05519500176066661</v>
+        <v>0.01132534064858404</v>
       </c>
       <c r="T17">
-        <v>0.05519500176066662</v>
+        <v>0.01132534064858404</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H18">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I18">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J18">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N18">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q18">
-        <v>29.20032514045755</v>
+        <v>26.90974659083211</v>
       </c>
       <c r="R18">
-        <v>262.802926264118</v>
+        <v>242.187719317489</v>
       </c>
       <c r="S18">
-        <v>0.0006067037432819068</v>
+        <v>0.0006287778370398677</v>
       </c>
       <c r="T18">
-        <v>0.0006067037432819069</v>
+        <v>0.0006287778370398677</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H19">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I19">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J19">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N19">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q19">
-        <v>28.11188625746089</v>
+        <v>1.202239236991222</v>
       </c>
       <c r="R19">
-        <v>253.006976317148</v>
+        <v>10.820153132921</v>
       </c>
       <c r="S19">
-        <v>0.0005840889284991525</v>
+        <v>2.809173191163916E-05</v>
       </c>
       <c r="T19">
-        <v>0.0005840889284991526</v>
+        <v>2.809173191163916E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N20">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O20">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P20">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q20">
-        <v>197.4082306495334</v>
+        <v>170.664776741644</v>
       </c>
       <c r="R20">
-        <v>1776.6740758458</v>
+        <v>1535.982990674796</v>
       </c>
       <c r="S20">
-        <v>0.004101608866121456</v>
+        <v>0.003987782969872424</v>
       </c>
       <c r="T20">
-        <v>0.004101608866121457</v>
+        <v>0.003987782969872426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>167.922954</v>
       </c>
       <c r="O21">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P21">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q21">
-        <v>545.37755786636</v>
+        <v>391.303527070542</v>
       </c>
       <c r="R21">
-        <v>4908.39802079724</v>
+        <v>3521.731743634878</v>
       </c>
       <c r="S21">
-        <v>0.01133146991575864</v>
+        <v>0.009143266531588638</v>
       </c>
       <c r="T21">
-        <v>0.01133146991575864</v>
+        <v>0.00914326653158864</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H22">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N22">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O22">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P22">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q22">
-        <v>0.6999982290955554</v>
+        <v>0.4291959324986666</v>
       </c>
       <c r="R22">
-        <v>6.299984061859999</v>
+        <v>3.862763392488</v>
       </c>
       <c r="S22">
-        <v>1.454406907594881E-05</v>
+        <v>1.002866709249363E-05</v>
       </c>
       <c r="T22">
-        <v>1.454406907594882E-05</v>
+        <v>1.002866709249363E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H23">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N23">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O23">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P23">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q23">
-        <v>171.3362090664244</v>
+        <v>22.94057665400067</v>
       </c>
       <c r="R23">
-        <v>1542.02588159782</v>
+        <v>206.465189886006</v>
       </c>
       <c r="S23">
-        <v>0.003559902805887122</v>
+        <v>0.0005360335193146754</v>
       </c>
       <c r="T23">
-        <v>0.003559902805887122</v>
+        <v>0.0005360335193146755</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H24">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N24">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O24">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P24">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q24">
-        <v>1.883328491428888</v>
+        <v>1.273650534366333</v>
       </c>
       <c r="R24">
-        <v>16.94995642285999</v>
+        <v>11.462854809297</v>
       </c>
       <c r="S24">
-        <v>3.913046995481055E-05</v>
+        <v>2.976034075387295E-05</v>
       </c>
       <c r="T24">
-        <v>3.913046995481055E-05</v>
+        <v>2.976034075387296E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H25">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N25">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O25">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P25">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q25">
-        <v>1.813127630662222</v>
+        <v>0.05690252940366667</v>
       </c>
       <c r="R25">
-        <v>16.31814867596</v>
+        <v>0.512122764633</v>
       </c>
       <c r="S25">
-        <v>3.767188602453309E-05</v>
+        <v>1.329594436713297E-06</v>
       </c>
       <c r="T25">
-        <v>3.767188602453309E-05</v>
+        <v>1.329594436713298E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N26">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O26">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P26">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q26">
-        <v>2889.025151242694</v>
+        <v>4584.98653008855</v>
       </c>
       <c r="R26">
-        <v>26001.22636118424</v>
+        <v>41264.87877079696</v>
       </c>
       <c r="S26">
-        <v>0.06002612523194167</v>
+        <v>0.1071335957592479</v>
       </c>
       <c r="T26">
-        <v>0.06002612523194167</v>
+        <v>0.1071335957592479</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H27">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>167.922954</v>
       </c>
       <c r="O27">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P27">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q27">
-        <v>7981.478160333008</v>
+        <v>10512.54649640186</v>
       </c>
       <c r="R27">
-        <v>71833.30344299707</v>
+        <v>94612.91846761676</v>
       </c>
       <c r="S27">
-        <v>0.1658335190962517</v>
+        <v>0.2456379968305083</v>
       </c>
       <c r="T27">
-        <v>0.1658335190962516</v>
+        <v>0.2456379968305084</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H28">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N28">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O28">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P28">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q28">
-        <v>10.24431698226755</v>
+        <v>11.53054313166311</v>
       </c>
       <c r="R28">
-        <v>92.19885284040799</v>
+        <v>103.774888184968</v>
       </c>
       <c r="S28">
-        <v>0.0002128491868022653</v>
+        <v>0.0002694246839430322</v>
       </c>
       <c r="T28">
-        <v>0.0002128491868022653</v>
+        <v>0.0002694246839430322</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H29">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N29">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O29">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P29">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q29">
-        <v>2507.466966715588</v>
+        <v>616.308982786085</v>
       </c>
       <c r="R29">
-        <v>22567.2027004403</v>
+        <v>5546.780845074766</v>
       </c>
       <c r="S29">
-        <v>0.05209837861545943</v>
+        <v>0.01440078329375648</v>
       </c>
       <c r="T29">
-        <v>0.05209837861545943</v>
+        <v>0.01440078329375648</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H30">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N30">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O30">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P30">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q30">
-        <v>27.56208979680088</v>
+        <v>34.21719850810189</v>
       </c>
       <c r="R30">
-        <v>248.0588081712079</v>
+        <v>307.954786572917</v>
       </c>
       <c r="S30">
-        <v>0.0005726656457404475</v>
+        <v>0.0007995250343538368</v>
       </c>
       <c r="T30">
-        <v>0.0005726656457404475</v>
+        <v>0.000799525034353837</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H31">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N31">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O31">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P31">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q31">
-        <v>26.53471595465422</v>
+        <v>1.528712226534778</v>
       </c>
       <c r="R31">
-        <v>238.812443591888</v>
+        <v>13.758410038813</v>
       </c>
       <c r="S31">
-        <v>0.0005513195972707103</v>
+        <v>3.572015678454645E-05</v>
       </c>
       <c r="T31">
-        <v>0.0005513195972707103</v>
+        <v>3.572015678454646E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H32">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I32">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J32">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N32">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O32">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P32">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q32">
-        <v>3291.548865187381</v>
+        <v>2361.428777800199</v>
       </c>
       <c r="R32">
-        <v>29623.93978668642</v>
+        <v>21252.85900020179</v>
       </c>
       <c r="S32">
-        <v>0.0683894788191117</v>
+        <v>0.05517755710619618</v>
       </c>
       <c r="T32">
-        <v>0.0683894788191117</v>
+        <v>0.0551775571061962</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H33">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I33">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J33">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>167.922954</v>
       </c>
       <c r="O33">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P33">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q33">
-        <v>9093.526018581564</v>
+        <v>5414.329935683926</v>
       </c>
       <c r="R33">
-        <v>81841.73416723408</v>
+        <v>48728.96942115534</v>
       </c>
       <c r="S33">
-        <v>0.1889388645012328</v>
+        <v>0.1265121785702506</v>
       </c>
       <c r="T33">
-        <v>0.1889388645012328</v>
+        <v>0.1265121785702506</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H34">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I34">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J34">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N34">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O34">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P34">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q34">
-        <v>11.671642914946</v>
+        <v>5.938633886073776</v>
       </c>
       <c r="R34">
-        <v>105.044786234514</v>
+        <v>53.44770497466399</v>
       </c>
       <c r="S34">
-        <v>0.0002425051574832062</v>
+        <v>0.0001387631562137898</v>
       </c>
       <c r="T34">
-        <v>0.0002425051574832063</v>
+        <v>0.0001387631562137898</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H35">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I35">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J35">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N35">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O35">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P35">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q35">
-        <v>2856.828728277902</v>
+        <v>317.4207292468798</v>
       </c>
       <c r="R35">
-        <v>25711.45855450112</v>
+        <v>2856.786563221918</v>
       </c>
       <c r="S35">
-        <v>0.05935717068300883</v>
+        <v>0.007416908178372363</v>
       </c>
       <c r="T35">
-        <v>0.05935717068300884</v>
+        <v>0.007416908178372364</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H36">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I36">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J36">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N36">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O36">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P36">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q36">
-        <v>31.40227607704599</v>
+        <v>17.62305662677122</v>
       </c>
       <c r="R36">
-        <v>282.620484693414</v>
+        <v>158.607509640941</v>
       </c>
       <c r="S36">
-        <v>0.0006524543254869095</v>
+        <v>0.0004117834179675069</v>
       </c>
       <c r="T36">
-        <v>0.0006524543254869096</v>
+        <v>0.000411783417967507</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H37">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I37">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J37">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N37">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O37">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P37">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q37">
-        <v>30.231759716956</v>
+        <v>0.7873403817054444</v>
       </c>
       <c r="R37">
-        <v>272.085837452604</v>
+        <v>7.086063435349</v>
       </c>
       <c r="S37">
-        <v>0.0006281341628235364</v>
+        <v>1.839713282144232E-05</v>
       </c>
       <c r="T37">
-        <v>0.0006281341628235365</v>
+        <v>1.839713282144232E-05</v>
       </c>
     </row>
   </sheetData>
